--- a/data/trans_bre/P2_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P2_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -641,47 +673,67 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>0,05</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>1,32%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,8%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-0,89%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,57%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>-0,02%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,19%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,03%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
           <t>0,05%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,53%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 3,7</t>
+          <t>-1,48; 3,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 6,26</t>
+          <t>-1,88; 6,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 2,91</t>
+          <t>-3,1; 4,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 2,67</t>
+          <t>-3,98; 5,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 2,76</t>
+          <t>-2,93; 3,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 4,07</t>
+          <t>-2,33; 2,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 7,12</t>
+          <t>-2,01; 2,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 3,11</t>
+          <t>-1,56; 3,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,85; 2,93</t>
+          <t>-1,99; 7,35</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 2,96</t>
+          <t>-3,24; 4,69</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-4,21; 6,05</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-3,06; 3,38</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-2,41; 2,68</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-2,08; 2,87</t>
         </is>
       </c>
     </row>
@@ -761,47 +833,67 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>-1,58</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>2,08</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-1,48%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-0,43%</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-1,78%</t>
+          <t>-1,49%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-1,51%</t>
+          <t>-2,24%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>-1,89%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-1,76%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-1,64%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>2,21%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0,85%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 0,68</t>
+          <t>-4,48; 0,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 6,48</t>
+          <t>-4,74; 0,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 0,99</t>
+          <t>-5,11; 0,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 1,98</t>
+          <t>-5,29; 1,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 6,29</t>
+          <t>-4,88; 1,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 0,71</t>
+          <t>-2,11; 6,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 7,21</t>
+          <t>-3,83; 5,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 1,06</t>
+          <t>-4,6; 0,95</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 2,15</t>
+          <t>-4,85; 0,25</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 6,9</t>
+          <t>-5,23; 0,74</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-5,54; 1,39</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-5,06; 1,7</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-2,21; 7,14</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-3,96; 5,65</t>
         </is>
       </c>
     </row>
@@ -881,45 +993,65 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,62</t>
+          <t>-4,74</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,13</t>
+          <t>-3,78</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-6,91</t>
+          <t>-7,12</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>-0,76</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>1,56%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-5,91%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-3,37%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-7,45%</t>
+          <t>-4,95%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-4,04%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-7,68%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,79%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -934,50 +1066,70 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 7,18</t>
+          <t>-3,72; 6,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,63; 1,32</t>
+          <t>-10,74; 1,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,81; 3,5</t>
+          <t>-9,77; 2,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-14,04; 0,44</t>
+          <t>-14,25; 0,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-6,32; 4,43</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-4,16; 8,04</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-15,09; 1,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,57; 3,72</t>
+          <t>-3,92; 7,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-14,87; 0,45</t>
+          <t>-11,1; 1,78</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-10,26; 2,83</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-15,11; 0,81</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-6,41; 4,73</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1001,47 +1153,67 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,09</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>0,51</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,58</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>0,2%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-0,52%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-1,52%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-2,23%</t>
+          <t>-0,91%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
+          <t>-1,22%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-1,66%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-0,73%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
           <t>0,54%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0,61%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,91 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 1,87</t>
+          <t>-1,79; 1,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 3,06</t>
+          <t>-2,7; 1,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 0,78</t>
+          <t>-3,32; 1,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 0,85</t>
+          <t>-4,17; 1,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 2,32</t>
+          <t>-2,65; 1,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 1,98</t>
+          <t>-1,62; 2,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 3,29</t>
+          <t>-1,49; 2,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 0,83</t>
+          <t>-1,85; 1,81</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 0,9</t>
+          <t>-2,82; 1,98</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 2,5</t>
+          <t>-3,48; 1,22</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-4,41; 1,42</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-2,72; 1,51</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-1,67; 2,96</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-1,56; 2,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P2_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P2_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -666,479 +675,307 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,24</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,02</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-0,17</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,5</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>1,32%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>1,3%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-0,02%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-0,19%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>0,03%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>0,05%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>0,53%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.236724500514585</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.180895782817259</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.3709142707397528</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.7574544899045743</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.07795693341520193</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.04503194767575547</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.508658550413843</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.01320333388848181</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.01280605744035801</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.003940606712165651</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>-0.008112103909394319</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>0.0008205649561700635</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>0.0004733010906157611</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>0.005383056746111494</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,48; 3,58</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,88; 6,44</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,1; 4,23</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-3,98; 5,5</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-2,93; 3,15</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-2,33; 2,5</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-2,01; 2,68</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-1,56; 3,87</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-1,99; 7,35</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-3,24; 4,69</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-4,21; 6,05</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-3,06; 3,38</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>-2,41; 2,68</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>-2,08; 2,87</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.482429512988722</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.17944431517871</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-3.456329439881305</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-5.331464913045505</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-2.926450431162394</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-2.330667346234025</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-2.002576056229078</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.0155906758288383</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.02289828448150463</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.03624327888740658</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.05761131408593054</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.03068039134690431</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>-0.02409903661291972</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>-0.02080265468134714</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>3.57706564298411</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.568769007375236</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>3.396585522903765</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>3.730242870915453</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>3.152567380732636</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>2.502022486364896</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>2.72267600089106</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.03869288471372359</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.0625516732402423</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.03680060803308913</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.03959104190413142</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.03409386393005126</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>0.02681464389498728</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>0.02938642622672769</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-1,44</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-2,17</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,81</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-1,67</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-1,58</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>2,08</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,8</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-1,49%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-2,24%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-1,89%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-1,76%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-1,64%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>2,21%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>0,85%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-4,48; 0,91</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-4,74; 0,24</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-5,11; 0,7</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-5,29; 1,32</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-4,88; 1,61</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-2,11; 6,42</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-3,83; 5,17</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-4,6; 0,95</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-4,85; 0,25</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-5,23; 0,74</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-5,54; 1,39</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-5,06; 1,7</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>-2,21; 7,14</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>-3,96; 5,65</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-1.439858271428252</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-1.917451004404558</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-1.636144858958311</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-1.246740337214181</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-1.608199948458433</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>2.077736326707535</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.839697978933962</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.01486447926936312</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.01982287551880316</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.01709957190660018</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>-0.01319711545183251</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>-0.01674003740043862</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>0.02213094093813852</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>0.008923472214532442</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,45</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-4,74</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-3,78</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-7,12</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-0,76</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>1,56%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-4,95%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-4,04%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>-7,68%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>-0,79%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-4.477410724828642</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-4.6570620574646</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-4.806703325098938</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-4.875263387833191</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-4.925322045906704</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-2.111294025361826</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-3.700885386202206</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.04598712442228751</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.04759623099465273</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.04993735048961809</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.05040014471167033</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.05044985831081077</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>-0.02207876811455324</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>-0.03858757760930796</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,72; 6,78</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-10,74; 1,68</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-9,77; 2,55</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-14,25; 0,86</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-6,32; 4,43</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-3,92; 7,54</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-11,1; 1,78</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-10,26; 2,83</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-15,11; 0,81</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-6,41; 4,73</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.9149441152121395</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.6858964789847819</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.9852014665607928</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2.06618618564315</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>1.463189626811602</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>6.417840301790304</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>5.204178535565996</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.009482758718403171</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.006916279748500244</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.01046665613889522</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.0223563661744096</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.01546341555769276</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>0.07138388621876511</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>0.05691470033559572</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1146,157 +983,281 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,19</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,87</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-1,16</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-1,56</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-0,7</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,51</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,58</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>0,2%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-0,91%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-1,22%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-1,66%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-0,73%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>0,54%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>0,61%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>1.449458331915532</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-5.236477450413702</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-3.481600499662363</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-6.734010008593772</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.7912643097796157</v>
+      </c>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="6" t="n">
+        <v>0.0155953376260502</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.05467987597249356</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.037354727910148</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>-0.07254674461732236</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>-0.008241337675140901</v>
+      </c>
+      <c r="O10" s="6" t="inlineStr"/>
+      <c r="P10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,79; 1,68</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,7; 1,85</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-3,32; 1,14</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-4,17; 1,31</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-2,65; 1,43</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-1,62; 2,72</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-1,49; 2,66</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-1,85; 1,81</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-2,82; 1,98</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-3,48; 1,22</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-4,41; 1,42</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-2,72; 1,51</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>-1,67; 2,96</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>-1,56; 2,86</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-3.722134320782477</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-13.55023800606295</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-9.359076021401409</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-13.41562399784986</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-6.514668764360188</v>
+      </c>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.03918624142822411</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.1406707788618744</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.09876867916633668</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>-0.1434992475801001</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>-0.06621110278615952</v>
+      </c>
+      <c r="O11" s="6" t="inlineStr"/>
+      <c r="P11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>6.776328731971554</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.9677576921397582</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>3.130835300353573</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.337079683583742</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>4.413905358474199</v>
+      </c>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>0.07535523083539562</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.00871949787897373</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.03405809713555896</v>
+      </c>
+      <c r="M12" s="6" t="n">
+        <v>0.0134734613403869</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>0.04716814929297563</v>
+      </c>
+      <c r="O12" s="6" t="inlineStr"/>
+      <c r="P12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.1851163077050244</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.8345776715396158</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-1.227101786049067</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-1.640750765920984</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.6965054798837134</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.5138484733248738</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.5903548829014893</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.001951381714254936</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.008836304227836028</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.01296656279043002</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>-0.01750229239141151</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>-0.007289092313524237</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>0.005417919415870564</v>
+      </c>
+      <c r="P13" s="6" t="n">
+        <v>0.006253942915706743</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.788688973175024</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.914593912776305</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-3.481475511216775</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-4.480136623237406</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-2.599110736302298</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-1.61834420432077</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-1.515490118168612</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.01854599935697547</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.03028299182091469</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.03639263983362206</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.04731386013372106</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.02705121499450955</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>-0.01669890980786721</v>
+      </c>
+      <c r="P14" s="6" t="n">
+        <v>-0.01593884594246425</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.679422210097186</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.618307766178779</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.872894162434802</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.9772411678142443</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>1.431998254976228</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>2.715615198263466</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>2.659022832048038</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.01805402717603961</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.01753121068660065</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.0093959743741694</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.01051551524685882</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.01512673570713186</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>0.02960094966555555</v>
+      </c>
+      <c r="P15" s="6" t="n">
+        <v>0.02845961958304312</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1305,12 +1266,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
